--- a/City Network.xlsx
+++ b/City Network.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP1\Documents\GitHub\Networked-Systems-Group-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5848DB93-1DE6-49F5-B106-6C7B18BD6EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961ABEED-53CC-4506-A984-6FFAEA9E58D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
   <si>
     <t>weight</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Leiden</t>
   </si>
   <si>
-    <t>schiphol</t>
-  </si>
-  <si>
     <t>20.5</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
   </si>
   <si>
     <t>20.1</t>
-  </si>
-  <si>
-    <t>zoetermeer</t>
   </si>
   <si>
     <t>23.8</t>
@@ -453,10 +447,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -491,15 +485,15 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -507,24 +501,24 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -532,29 +526,29 @@
         <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>3</v>
@@ -562,57 +556,57 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -620,29 +614,29 @@
         <v>48</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -650,10 +644,10 @@
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>3</v>
@@ -664,7 +658,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>3</v>
@@ -672,134 +666,134 @@
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -807,120 +801,127 @@
         <v>15</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="3" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="C39" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>24.3</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>

--- a/City Network.xlsx
+++ b/City Network.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP1\Documents\GitHub\Networked-Systems-Group-Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annev\Documents\GitHub\Networked-Systems-Group-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961ABEED-53CC-4506-A984-6FFAEA9E58D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676F0F10-49E3-41E3-B959-1A9C4395DA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
   <si>
     <t>weight</t>
   </si>
@@ -28,28 +28,28 @@
     <t>b</t>
   </si>
   <si>
-    <t>42.4</t>
-  </si>
-  <si>
     <t>Amsterdam</t>
   </si>
   <si>
     <t>Utrecht</t>
   </si>
   <si>
-    <t>29.7</t>
+    <t>28.7</t>
   </si>
   <si>
     <t>Leiden</t>
   </si>
   <si>
-    <t>20.5</t>
+    <t>Schiphol</t>
+  </si>
+  <si>
+    <t>22.9</t>
   </si>
   <si>
     <t>Den Haag</t>
   </si>
   <si>
-    <t>22.8</t>
+    <t>17.4</t>
   </si>
   <si>
     <t>Woerden</t>
@@ -58,124 +58,130 @@
     <t>Gouda</t>
   </si>
   <si>
-    <t>27.8</t>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>24.1</t>
   </si>
   <si>
     <t>Alphen aan de rijn</t>
   </si>
   <si>
-    <t>10.9</t>
+    <t>7.5</t>
   </si>
   <si>
     <t>Delft</t>
   </si>
   <si>
-    <t>27.4</t>
-  </si>
-  <si>
-    <t>Zaanstad</t>
+    <t>Zaandam</t>
+  </si>
+  <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t>Haarlem</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>42.9</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>Almere</t>
+  </si>
+  <si>
+    <t>Hilversum</t>
+  </si>
+  <si>
+    <t>29.9</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>17.7</t>
+  </si>
+  <si>
+    <t>23.9</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>Zoetermeer</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>24.9</t>
+  </si>
+  <si>
+    <t>Amersfoort</t>
+  </si>
+  <si>
+    <t>23.6</t>
+  </si>
+  <si>
+    <t>Rotterdam</t>
+  </si>
+  <si>
+    <t>18.8</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>Vlaardingen</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>14.4</t>
+  </si>
+  <si>
+    <t>Spijkenisse</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
+    <t>34.1</t>
+  </si>
+  <si>
+    <t>28.3</t>
+  </si>
+  <si>
+    <t>59.2</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t>18.6</t>
   </si>
   <si>
     <t>23.3</t>
-  </si>
-  <si>
-    <t>Haarlem</t>
-  </si>
-  <si>
-    <t>20.2</t>
-  </si>
-  <si>
-    <t>Schiphol</t>
-  </si>
-  <si>
-    <t>20.8</t>
-  </si>
-  <si>
-    <t>48.7</t>
-  </si>
-  <si>
-    <t>31.8</t>
-  </si>
-  <si>
-    <t>29.3</t>
-  </si>
-  <si>
-    <t>Almere</t>
-  </si>
-  <si>
-    <t>Hilversum</t>
-  </si>
-  <si>
-    <t>19.2</t>
-  </si>
-  <si>
-    <t>32.3</t>
-  </si>
-  <si>
-    <t>20.3</t>
-  </si>
-  <si>
-    <t>18.2</t>
-  </si>
-  <si>
-    <t>25.4</t>
-  </si>
-  <si>
-    <t>20.6</t>
-  </si>
-  <si>
-    <t>Zoetermeer</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>16.4</t>
-  </si>
-  <si>
-    <t>27.9</t>
-  </si>
-  <si>
-    <t>Amersfoort</t>
-  </si>
-  <si>
-    <t>26.9</t>
-  </si>
-  <si>
-    <t>15.7</t>
-  </si>
-  <si>
-    <t>Rotterdam</t>
-  </si>
-  <si>
-    <t>17.7</t>
-  </si>
-  <si>
-    <t>Vlaardingen</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
-    <t>Spijkenisse</t>
-  </si>
-  <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
-    <t>25.6</t>
-  </si>
-  <si>
-    <t>60.9</t>
-  </si>
-  <si>
-    <t>14.8</t>
-  </si>
-  <si>
-    <t>20.1</t>
-  </si>
-  <si>
-    <t>23.8</t>
   </si>
   <si>
     <t xml:space="preserve">Rotterdam </t>
@@ -185,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -196,6 +202,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -227,11 +239,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -447,10 +460,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -467,25 +480,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -496,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -515,43 +528,43 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>24</v>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -573,150 +586,150 @@
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>48</v>
-      </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -724,32 +737,32 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="3">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -757,32 +770,32 @@
         <v>40</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -790,149 +803,159 @@
         <v>44</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>15</v>
+      <c r="A32" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>36</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>38</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>24.3</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/City Network.xlsx
+++ b/City Network.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annev\Documents\GitHub\Networked-Systems-Group-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676F0F10-49E3-41E3-B959-1A9C4395DA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359367CA-2CEC-45B7-AD16-69B6E8F4D7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
   <si>
     <t>weight</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>23.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotterdam </t>
   </si>
 </sst>
 </file>
@@ -462,8 +459,8 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -880,7 +877,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>11</v>
